--- a/Final Paper Data.xlsx
+++ b/Final Paper Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescayton/Documents/GitHub/2218Project/2218Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCD4106-3A4B-FB46-823C-ED7C8975AF8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144D7960-FD38-6945-AE23-6ADA4602BEA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31020" yWindow="4900" windowWidth="28800" windowHeight="15760" xr2:uid="{B3595DEE-2BBA-674C-A8F7-ADF5C97A48A7}"/>
+    <workbookView xWindow="36520" yWindow="4160" windowWidth="28800" windowHeight="15760" xr2:uid="{B3595DEE-2BBA-674C-A8F7-ADF5C97A48A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2020 Bill" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="2004 Ranks" sheetId="3" r:id="rId3"/>
     <sheet name="2003 Ranks" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2020 Bill'!$A$1:$AL$97</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1448,14 +1451,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6D2EB7-29D4-3844-B95A-0F6EC212CEE3}">
   <dimension ref="A1:AL97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB82" sqref="AB82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
     <col min="4" max="24" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1638,200 +1641,218 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>70</v>
+      <c r="A3" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
         <v>158</v>
       </c>
       <c r="E3">
-        <v>18.100000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="I3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
         <v>1</v>
       </c>
       <c r="AB3">
         <v>1</v>
       </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
       <c r="AD3">
         <v>1</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>4.26</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1.8460000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>158</v>
       </c>
       <c r="E4">
-        <v>17.100000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>2006</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>190</v>
+        <v>2001</v>
+      </c>
+      <c r="I4" t="s">
+        <v>174</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>1</v>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>1</v>
       </c>
+      <c r="Z4" t="s">
+        <v>287</v>
+      </c>
       <c r="AB4">
         <v>1</v>
       </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1</v>
       </c>
       <c r="AH4">
-        <v>3.63</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>248</v>
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>8.0939999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
         <v>158</v>
       </c>
       <c r="E5">
-        <v>16.8</v>
+        <v>11.2</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>2003</v>
       </c>
       <c r="I5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Y5">
         <v>1</v>
       </c>
+      <c r="Z5" t="s">
+        <v>294</v>
+      </c>
       <c r="AB5">
         <v>1</v>
       </c>
-      <c r="AD5">
-        <v>1</v>
-      </c>
       <c r="AH5">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1.704</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>73</v>
+      <c r="A6" t="s">
+        <v>302</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>69</v>
+        <v>590</v>
       </c>
       <c r="D6" t="s">
         <v>158</v>
       </c>
       <c r="E6">
-        <v>15.2</v>
+        <v>3.3</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H6">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="I6" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1842,167 +1863,167 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
         <v>1</v>
       </c>
       <c r="AB6">
         <v>1</v>
       </c>
-      <c r="AC6">
-        <v>1</v>
-      </c>
       <c r="AD6">
         <v>1</v>
       </c>
       <c r="AH6">
-        <v>4.26</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>1.8460000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C7">
-        <v>72</v>
+        <v>590</v>
       </c>
       <c r="D7" t="s">
         <v>158</v>
       </c>
       <c r="E7">
-        <v>14.4</v>
+        <v>3.3</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H7">
         <v>2008</v>
       </c>
       <c r="I7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
         <v>1</v>
       </c>
       <c r="Y7">
         <v>1</v>
       </c>
+      <c r="Z7" t="s">
+        <v>304</v>
+      </c>
       <c r="AB7">
         <v>1</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>1</v>
       </c>
       <c r="AH7">
-        <v>4.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>83</v>
+        <v>1613</v>
       </c>
       <c r="D8" t="s">
         <v>158</v>
       </c>
       <c r="E8">
-        <v>13.4</v>
+        <v>1.3</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>2005</v>
+        <v>2001</v>
+      </c>
+      <c r="I8" t="s">
+        <v>175</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>1</v>
       </c>
       <c r="Y8">
         <v>1</v>
       </c>
+      <c r="Z8" t="s">
+        <v>321</v>
+      </c>
       <c r="AB8">
         <v>1</v>
       </c>
-      <c r="AG8">
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
         <v>1</v>
       </c>
       <c r="AH8">
-        <v>4.45</v>
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>86</v>
+        <v>1730</v>
       </c>
       <c r="D9" t="s">
         <v>158</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>1.2</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="H9">
-        <v>2001</v>
-      </c>
-      <c r="I9" t="s">
-        <v>176</v>
+        <v>2005</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -2013,16 +2034,7 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB9">
+      <c r="N9">
         <v>1</v>
       </c>
       <c r="AD9">
@@ -2030,55 +2042,52 @@
       </c>
       <c r="AH9">
         <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>1</v>
-      </c>
-      <c r="AJ9">
-        <v>6.1059999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C10">
-        <v>95</v>
+        <v>1990</v>
       </c>
       <c r="D10" t="s">
         <v>158</v>
       </c>
       <c r="E10">
-        <v>12.5</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="H10">
-        <v>2006</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>204</v>
+        <v>2018</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB10">
         <v>1</v>
       </c>
       <c r="AD10">
@@ -2090,37 +2099,34 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C11">
-        <v>113</v>
+        <v>1990</v>
       </c>
       <c r="D11" t="s">
         <v>158</v>
       </c>
       <c r="E11">
-        <v>11.3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>2001</v>
-      </c>
-      <c r="I11" t="s">
-        <v>174</v>
+        <v>2018</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2128,117 +2134,93 @@
       <c r="N11">
         <v>1</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB11">
-        <v>1</v>
-      </c>
-      <c r="AE11">
+      <c r="AD11">
         <v>1</v>
       </c>
       <c r="AH11">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="AI11">
-        <v>1</v>
-      </c>
-      <c r="AJ11">
-        <v>8.0939999999999994</v>
+        <v>0</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
         <v>158</v>
       </c>
       <c r="E12">
-        <v>11.2</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="H12">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="I12" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>294</v>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
       </c>
       <c r="AD12">
         <v>1</v>
       </c>
       <c r="AH12">
         <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>4.8</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>158</v>
       </c>
       <c r="E13">
-        <v>10.5</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="H13">
-        <v>2003</v>
-      </c>
-      <c r="I13" t="s">
-        <v>176</v>
+        <v>2006</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2252,65 +2234,71 @@
       <c r="M13">
         <v>1</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
       <c r="Y13">
         <v>1</v>
       </c>
       <c r="AB13">
         <v>1</v>
       </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
       <c r="AD13">
         <v>1</v>
       </c>
       <c r="AH13">
-        <v>3.75</v>
-      </c>
-      <c r="AI13">
-        <v>1</v>
-      </c>
-      <c r="AJ13">
-        <v>3.3</v>
+        <v>3.63</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
         <v>158</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>16.8</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="H14">
-        <v>2006</v>
+        <v>2003</v>
+      </c>
+      <c r="I14" t="s">
+        <v>178</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>1</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
       <c r="AB14">
         <v>1</v>
       </c>
@@ -2318,24 +2306,27 @@
         <v>1</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>3.69</v>
+      </c>
+      <c r="AJ14">
+        <v>1.704</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
         <v>158</v>
       </c>
       <c r="E15">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -2344,7 +2335,7 @@
         <v>3</v>
       </c>
       <c r="H15">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="I15" t="s">
         <v>176</v>
@@ -2364,7 +2355,10 @@
       <c r="O15">
         <v>1</v>
       </c>
-      <c r="Q15">
+      <c r="Z15" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB15">
         <v>1</v>
       </c>
       <c r="AD15">
@@ -2372,35 +2366,41 @@
       </c>
       <c r="AH15">
         <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>6.1059999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
         <v>158</v>
       </c>
       <c r="E16">
-        <v>7.3</v>
+        <v>10.5</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>2006</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>191</v>
+        <v>2003</v>
+      </c>
+      <c r="I16" t="s">
+        <v>176</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -2411,58 +2411,58 @@
       <c r="L16">
         <v>0</v>
       </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
       <c r="N16">
         <v>1</v>
       </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
       <c r="Y16">
         <v>1</v>
       </c>
-      <c r="Z16" t="s">
-        <v>295</v>
-      </c>
       <c r="AB16">
         <v>1</v>
       </c>
-      <c r="AC16">
-        <v>1</v>
-      </c>
-      <c r="AE16">
+      <c r="AD16">
         <v>1</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>3.75</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>3.3</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="D17" t="s">
         <v>158</v>
       </c>
       <c r="E17">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>163</v>
-      </c>
-      <c r="H17" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>186</v>
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>2004</v>
+      </c>
+      <c r="I17" t="s">
+        <v>176</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2473,10 +2473,13 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="AB17">
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
         <v>1</v>
       </c>
       <c r="AD17">
@@ -2488,22 +2491,22 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="D18" t="s">
         <v>158</v>
       </c>
       <c r="E18">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
         <v>15</v>
@@ -2511,8 +2514,8 @@
       <c r="H18">
         <v>2006</v>
       </c>
-      <c r="I18" t="s">
-        <v>192</v>
+      <c r="I18" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2523,13 +2526,25 @@
       <c r="L18">
         <v>0</v>
       </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
       <c r="W18">
         <v>1</v>
       </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>295</v>
+      </c>
       <c r="AB18">
         <v>1</v>
       </c>
-      <c r="AD18">
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
         <v>1</v>
       </c>
       <c r="AH18">
@@ -2538,31 +2553,31 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D19" t="s">
         <v>158</v>
       </c>
       <c r="E19">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>2008</v>
-      </c>
-      <c r="I19" t="s">
-        <v>176</v>
+        <v>163</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2573,10 +2588,10 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
         <v>1</v>
       </c>
       <c r="AD19">
@@ -2588,31 +2603,31 @@
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>224</v>
+      </c>
+      <c r="D20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20">
+        <v>6.6</v>
+      </c>
+      <c r="F20" t="s">
         <v>19</v>
       </c>
-      <c r="C20">
-        <v>241</v>
-      </c>
-      <c r="D20" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20">
-        <v>6.3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5</v>
-      </c>
       <c r="G20" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H20">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2623,7 +2638,10 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
         <v>1</v>
       </c>
       <c r="AD20">
@@ -2635,48 +2653,48 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s">
         <v>158</v>
       </c>
       <c r="E21">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>2007</v>
+        <v>2008</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="Y21">
-        <v>1</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>296</v>
-      </c>
-      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
         <v>1</v>
       </c>
       <c r="AH21">
@@ -2685,42 +2703,42 @@
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="D22" t="s">
         <v>158</v>
       </c>
       <c r="E22">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <v>2004</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>1</v>
       </c>
       <c r="AD22">
@@ -2728,9 +2746,6 @@
       </c>
       <c r="AH22">
         <v>0</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.2">
@@ -2850,34 +2865,34 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C25">
-        <v>383</v>
+        <v>908</v>
       </c>
       <c r="D25" t="s">
         <v>158</v>
       </c>
       <c r="E25">
-        <v>4.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="H25">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I25" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2885,66 +2900,72 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
         <v>1</v>
       </c>
       <c r="AD25">
         <v>1</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>4.32</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C26">
-        <v>437</v>
+        <v>945</v>
       </c>
       <c r="D26" t="s">
         <v>158</v>
       </c>
       <c r="E26">
-        <v>4.0999999999999996</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H26">
         <v>2010</v>
       </c>
+      <c r="I26" t="s">
+        <v>200</v>
+      </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>300</v>
-      </c>
-      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
         <v>1</v>
       </c>
       <c r="AH26">
@@ -2953,48 +2974,54 @@
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C27">
-        <v>451</v>
+        <v>1063</v>
       </c>
       <c r="D27" t="s">
         <v>158</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="H27">
-        <v>2007</v>
+        <v>2018</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="N27">
         <v>1</v>
       </c>
       <c r="Y27">
         <v>1</v>
       </c>
       <c r="Z27" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD27">
+        <v>308</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
         <v>1</v>
       </c>
       <c r="AH27">
@@ -3003,31 +3030,31 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C28">
-        <v>538</v>
+        <v>1335</v>
       </c>
       <c r="D28" t="s">
         <v>158</v>
       </c>
       <c r="E28">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="H28">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3047,39 +3074,42 @@
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C29">
-        <v>565</v>
+        <v>1415</v>
       </c>
       <c r="D29" t="s">
         <v>158</v>
       </c>
       <c r="E29">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="F29" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H29">
-        <v>2018</v>
+        <v>2016</v>
+      </c>
+      <c r="I29" t="s">
+        <v>233</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="P29">
         <v>1</v>
       </c>
       <c r="AD29">
@@ -3091,28 +3121,28 @@
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C30">
-        <v>565</v>
+        <v>1415</v>
       </c>
       <c r="D30" t="s">
         <v>158</v>
       </c>
       <c r="E30">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
         <v>22</v>
       </c>
       <c r="H30">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3124,9 +3154,6 @@
         <v>1</v>
       </c>
       <c r="R30">
-        <v>1</v>
-      </c>
-      <c r="AB30">
         <v>1</v>
       </c>
       <c r="AD30">
@@ -3138,151 +3165,169 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>302</v>
+        <v>125</v>
       </c>
       <c r="B31">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C31">
-        <v>590</v>
+        <v>1415</v>
       </c>
       <c r="D31" t="s">
         <v>158</v>
       </c>
       <c r="E31">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H31">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="I31" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>315</v>
       </c>
       <c r="AB31">
         <v>1</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>1</v>
       </c>
       <c r="AH31">
         <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B32">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C32">
-        <v>590</v>
+        <v>1513</v>
       </c>
       <c r="D32" t="s">
         <v>158</v>
       </c>
       <c r="E32">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="H32">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I32" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="T32">
+      <c r="N32">
         <v>1</v>
       </c>
       <c r="U32">
         <v>1</v>
       </c>
-      <c r="Y32">
-        <v>1</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>304</v>
-      </c>
       <c r="AB32">
         <v>1</v>
       </c>
-      <c r="AF32">
+      <c r="AD32">
         <v>1</v>
       </c>
       <c r="AH32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AK32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="B33">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C33">
-        <v>648</v>
+        <v>1513</v>
       </c>
       <c r="D33" t="s">
         <v>158</v>
       </c>
       <c r="E33">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="F33" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="H33">
         <v>2008</v>
       </c>
+      <c r="I33" t="s">
+        <v>197</v>
+      </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="AC33">
         <v>1</v>
       </c>
       <c r="AD33">
@@ -3292,144 +3337,159 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="B34">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>1613</v>
+      </c>
+      <c r="D34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34">
+        <v>1.3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" t="s">
         <v>29</v>
       </c>
-      <c r="C34">
-        <v>648</v>
-      </c>
-      <c r="D34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34">
-        <v>3.1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" t="s">
-        <v>166</v>
-      </c>
       <c r="H34">
-        <v>2020</v>
+        <v>2005</v>
+      </c>
+      <c r="I34" t="s">
+        <v>185</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
-      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
         <v>1</v>
       </c>
       <c r="AH34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="B35">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C35">
-        <v>743</v>
+        <v>1730</v>
       </c>
       <c r="D35" t="s">
         <v>158</v>
       </c>
       <c r="E35">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>2011</v>
+        <v>2007</v>
+      </c>
+      <c r="I35" t="s">
+        <v>194</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <v>1</v>
       </c>
       <c r="O35">
         <v>1</v>
       </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>1</v>
-      </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>303</v>
-      </c>
-      <c r="AB35">
+      <c r="Q35">
         <v>1</v>
       </c>
       <c r="AD35">
         <v>1</v>
       </c>
       <c r="AH35">
-        <v>5.14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="B36">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C36">
-        <v>764</v>
+        <v>1730</v>
       </c>
       <c r="D36" t="s">
         <v>158</v>
       </c>
       <c r="E36">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="H36">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="W36">
         <v>1</v>
       </c>
       <c r="AD36">
@@ -3439,44 +3499,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="B37">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C37">
-        <v>764</v>
+        <v>1730</v>
       </c>
       <c r="D37" t="s">
         <v>158</v>
       </c>
       <c r="E37">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G37" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="H37">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="W37">
         <v>1</v>
       </c>
       <c r="AD37">
@@ -3486,41 +3543,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="B38">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C38">
-        <v>836</v>
+        <v>1851</v>
       </c>
       <c r="D38" t="s">
         <v>158</v>
       </c>
       <c r="E38">
-        <v>2.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H38">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="AC38">
         <v>1</v>
       </c>
       <c r="AD38">
@@ -3530,41 +3590,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="B39">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C39">
-        <v>875</v>
+        <v>1851</v>
       </c>
       <c r="D39" t="s">
         <v>158</v>
       </c>
       <c r="E39">
-        <v>2.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>2006</v>
+        <v>2013</v>
+      </c>
+      <c r="I39" t="s">
+        <v>202</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC39">
         <v>1</v>
       </c>
       <c r="AD39">
@@ -3574,33 +3646,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="B40">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C40">
-        <v>908</v>
+        <v>1851</v>
       </c>
       <c r="D40" t="s">
         <v>158</v>
       </c>
       <c r="E40">
-        <v>2.2999999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="I40" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3611,152 +3683,155 @@
       <c r="L40">
         <v>0</v>
       </c>
-      <c r="N40">
+      <c r="M40">
         <v>1</v>
       </c>
       <c r="Y40">
         <v>1</v>
       </c>
-      <c r="AB40">
+      <c r="Z40" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC40">
         <v>1</v>
       </c>
       <c r="AD40">
         <v>1</v>
       </c>
       <c r="AH40">
-        <v>4.32</v>
-      </c>
-      <c r="AI40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="B41">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C41">
-        <v>908</v>
+        <v>1851</v>
       </c>
       <c r="D41" t="s">
         <v>158</v>
       </c>
       <c r="E41">
-        <v>2.2999999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H41">
-        <v>2008</v>
+        <v>2012</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="W41">
-        <v>1</v>
-      </c>
-      <c r="AB41">
-        <v>1</v>
-      </c>
-      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AF41">
         <v>1</v>
       </c>
       <c r="AH41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="B42">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C42">
-        <v>908</v>
+        <v>1990</v>
       </c>
       <c r="D42" t="s">
         <v>158</v>
       </c>
       <c r="E42">
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H42">
-        <v>2008</v>
+        <v>2013</v>
+      </c>
+      <c r="I42" t="s">
+        <v>239</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="P42">
-        <v>1</v>
-      </c>
-      <c r="Y42">
-        <v>1</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA42">
-        <v>1</v>
-      </c>
-      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="AD42">
         <v>1</v>
       </c>
       <c r="AH42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="B43">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C43">
-        <v>945</v>
+        <v>1990</v>
       </c>
       <c r="D43" t="s">
         <v>158</v>
       </c>
       <c r="E43">
-        <v>2.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H43">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="I43" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -3767,10 +3842,10 @@
       <c r="L43">
         <v>0</v>
       </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="W43">
         <v>1</v>
       </c>
       <c r="AC43">
@@ -3783,101 +3858,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="B44">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C44">
-        <v>1001</v>
+        <v>1990</v>
       </c>
       <c r="D44" t="s">
         <v>158</v>
       </c>
       <c r="E44">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
         <v>3</v>
       </c>
       <c r="H44">
-        <v>2007</v>
+        <v>2012</v>
+      </c>
+      <c r="I44" t="s">
+        <v>202</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>1</v>
       </c>
       <c r="Z44" t="s">
-        <v>306</v>
-      </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
-      <c r="AG44">
+        <v>327</v>
+      </c>
+      <c r="AD44">
         <v>1</v>
       </c>
       <c r="AH44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="B45">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C45">
-        <v>1001</v>
+        <v>1990</v>
       </c>
       <c r="D45" t="s">
         <v>158</v>
       </c>
       <c r="E45">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>2011</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="T45">
-        <v>1</v>
-      </c>
-      <c r="AB45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD45">
         <v>1</v>
@@ -3885,193 +3948,193 @@
       <c r="AH45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AL45" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B46">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>1001</v>
+        <v>72</v>
       </c>
       <c r="D46" t="s">
         <v>158</v>
       </c>
       <c r="E46">
-        <v>2.1</v>
+        <v>14.4</v>
       </c>
       <c r="F46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>2008</v>
+      </c>
+      <c r="I46" t="s">
+        <v>203</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="AB46">
+        <v>1</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AH46">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>83</v>
+      </c>
+      <c r="D47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47">
+        <v>13.4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>163</v>
+      </c>
+      <c r="H47">
+        <v>2005</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+      <c r="AG47">
+        <v>1</v>
+      </c>
+      <c r="AH47">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48">
+        <v>12.5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>2006</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="AD48">
+        <v>1</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>135</v>
+      </c>
+      <c r="D49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
         <v>11</v>
-      </c>
-      <c r="G46" t="s">
-        <v>164</v>
-      </c>
-      <c r="H46">
-        <v>2012</v>
-      </c>
-      <c r="I46" t="s">
-        <v>227</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-      <c r="AD46">
-        <v>1</v>
-      </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
-      <c r="AK46" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>168</v>
-      </c>
-      <c r="B47">
-        <v>36</v>
-      </c>
-      <c r="C47">
-        <v>1001</v>
-      </c>
-      <c r="D47" t="s">
-        <v>158</v>
-      </c>
-      <c r="E47">
-        <v>2.1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47">
-        <v>2018</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="W47">
-        <v>1</v>
-      </c>
-      <c r="Y47">
-        <v>1</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>307</v>
-      </c>
-      <c r="AB47">
-        <v>1</v>
-      </c>
-      <c r="AE47">
-        <v>1</v>
-      </c>
-      <c r="AH47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>205</v>
-      </c>
-      <c r="B48">
-        <v>37</v>
-      </c>
-      <c r="C48">
-        <v>1063</v>
-      </c>
-      <c r="D48" t="s">
-        <v>158</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G48" t="s">
-        <v>163</v>
-      </c>
-      <c r="H48">
-        <v>2018</v>
-      </c>
-      <c r="I48" t="s">
-        <v>206</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="Y48">
-        <v>1</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>308</v>
-      </c>
-      <c r="AB48">
-        <v>1</v>
-      </c>
-      <c r="AE48">
-        <v>1</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49">
-        <v>37</v>
-      </c>
-      <c r="C49">
-        <v>1063</v>
-      </c>
-      <c r="D49" t="s">
-        <v>158</v>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s">
-        <v>30</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
       </c>
       <c r="H49">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -4085,7 +4148,7 @@
       <c r="P49">
         <v>1</v>
       </c>
-      <c r="U49">
+      <c r="AB49">
         <v>1</v>
       </c>
       <c r="AD49">
@@ -4095,187 +4158,181 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B50">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C50">
-        <v>1135</v>
+        <v>241</v>
       </c>
       <c r="D50" t="s">
         <v>158</v>
       </c>
       <c r="E50">
-        <v>1.9</v>
+        <v>6.3</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
+        <v>163</v>
+      </c>
+      <c r="H50">
+        <v>2007</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>296</v>
+      </c>
+      <c r="AF50">
+        <v>1</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>293</v>
+      </c>
+      <c r="D51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51">
+        <v>5.5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>163</v>
+      </c>
+      <c r="H51">
+        <v>2004</v>
+      </c>
+      <c r="I51" t="s">
+        <v>181</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="AD51">
+        <v>1</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <v>383</v>
+      </c>
+      <c r="D52" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52">
+        <v>4.5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s">
         <v>12</v>
       </c>
-      <c r="H50">
-        <v>2011</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="P50">
-        <v>1</v>
-      </c>
-      <c r="AD50">
-        <v>1</v>
-      </c>
-      <c r="AH50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51">
-        <v>39</v>
-      </c>
-      <c r="C51">
-        <v>1196</v>
-      </c>
-      <c r="D51" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51">
-        <v>1.8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51">
-        <v>2008</v>
-      </c>
-      <c r="I51" t="s">
-        <v>228</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-      <c r="W51">
-        <v>1</v>
-      </c>
-      <c r="Y51">
-        <v>1</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB51">
-        <v>1</v>
-      </c>
-      <c r="AG51">
-        <v>1</v>
-      </c>
-      <c r="AH51">
-        <v>5.4</v>
-      </c>
-      <c r="AL51" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52">
-        <v>39</v>
-      </c>
-      <c r="C52">
-        <v>1196</v>
-      </c>
-      <c r="D52" t="s">
-        <v>158</v>
-      </c>
-      <c r="E52">
-        <v>1.8</v>
-      </c>
-      <c r="F52" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" t="s">
-        <v>163</v>
-      </c>
       <c r="H52">
+        <v>2004</v>
+      </c>
+      <c r="I52" t="s">
+        <v>184</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53">
+        <v>24</v>
+      </c>
+      <c r="C53">
+        <v>437</v>
+      </c>
+      <c r="D53" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53">
         <v>2010</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="AD52">
-        <v>1</v>
-      </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53">
-        <v>40</v>
-      </c>
-      <c r="C53">
-        <v>1267</v>
-      </c>
-      <c r="D53" t="s">
-        <v>158</v>
-      </c>
-      <c r="E53">
-        <v>1.7</v>
-      </c>
-      <c r="F53" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53">
-        <v>2008</v>
-      </c>
       <c r="J53">
         <v>0</v>
       </c>
@@ -4285,46 +4342,49 @@
       <c r="L53">
         <v>1</v>
       </c>
-      <c r="U53">
+      <c r="W53">
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
+      <c r="Y53">
         <v>1</v>
       </c>
       <c r="Z53" t="s">
-        <v>311</v>
-      </c>
-      <c r="AB53">
-        <v>1</v>
-      </c>
-      <c r="AD53">
+        <v>300</v>
+      </c>
+      <c r="AE53">
         <v>1</v>
       </c>
       <c r="AH53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
       <c r="B54">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C54">
-        <v>1267</v>
+        <v>451</v>
       </c>
       <c r="D54" t="s">
         <v>158</v>
       </c>
       <c r="E54">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G54" t="s">
         <v>15</v>
       </c>
       <c r="H54">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -4335,8 +4395,14 @@
       <c r="L54">
         <v>1</v>
       </c>
-      <c r="N54">
-        <v>1</v>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="Y54">
+        <v>1</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>301</v>
       </c>
       <c r="AD54">
         <v>1</v>
@@ -4345,27 +4411,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B55">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C55">
-        <v>1267</v>
+        <v>538</v>
       </c>
       <c r="D55" t="s">
         <v>158</v>
       </c>
       <c r="E55">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="H55">
         <v>2008</v>
@@ -4379,337 +4445,325 @@
       <c r="L55">
         <v>1</v>
       </c>
-      <c r="V55">
-        <v>1</v>
-      </c>
-      <c r="Y55">
-        <v>1</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>312</v>
-      </c>
-      <c r="AE55">
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="AD55">
         <v>1</v>
       </c>
       <c r="AH55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B56">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C56">
-        <v>1335</v>
+        <v>565</v>
       </c>
       <c r="D56" t="s">
         <v>158</v>
       </c>
       <c r="E56">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="F56" t="s">
+        <v>165</v>
+      </c>
+      <c r="G56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56">
+        <v>2018</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57">
+        <v>27</v>
+      </c>
+      <c r="C57">
+        <v>565</v>
+      </c>
+      <c r="D57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57">
+        <v>3.4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57">
+        <v>2007</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AD57">
+        <v>1</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>198</v>
+      </c>
+      <c r="B58">
+        <v>29</v>
+      </c>
+      <c r="C58">
+        <v>648</v>
+      </c>
+      <c r="D58" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58">
+        <v>3.1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>163</v>
+      </c>
+      <c r="H58">
+        <v>2008</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="AD58">
+        <v>1</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59">
+        <v>29</v>
+      </c>
+      <c r="C59">
+        <v>648</v>
+      </c>
+      <c r="D59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59">
+        <v>3.1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>166</v>
+      </c>
+      <c r="H59">
+        <v>2020</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60">
         <v>30</v>
       </c>
-      <c r="G56" t="s">
+      <c r="C60">
+        <v>743</v>
+      </c>
+      <c r="D60" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60">
+        <v>2.8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60">
+        <v>2011</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="Y60">
+        <v>1</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB60">
+        <v>1</v>
+      </c>
+      <c r="AD60">
+        <v>1</v>
+      </c>
+      <c r="AH60">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61">
+        <v>31</v>
+      </c>
+      <c r="C61">
+        <v>764</v>
+      </c>
+      <c r="D61" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61">
+        <v>2.7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
         <v>167</v>
       </c>
-      <c r="H56">
-        <v>2017</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="U56">
-        <v>1</v>
-      </c>
-      <c r="Y56">
-        <v>1</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>312</v>
-      </c>
-      <c r="AE56">
-        <v>1</v>
-      </c>
-      <c r="AH56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>119</v>
-      </c>
-      <c r="B57">
-        <v>41</v>
-      </c>
-      <c r="C57">
-        <v>1335</v>
-      </c>
-      <c r="D57" t="s">
-        <v>158</v>
-      </c>
-      <c r="E57">
-        <v>1.6</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="H61">
+        <v>2011</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="AD61">
+        <v>1</v>
+      </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62">
+        <v>31</v>
+      </c>
+      <c r="C62">
+        <v>764</v>
+      </c>
+      <c r="D62" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62">
+        <v>2.7</v>
+      </c>
+      <c r="F62" t="s">
         <v>30</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G62" t="s">
         <v>167</v>
       </c>
-      <c r="H57">
-        <v>2017</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="U57">
-        <v>1</v>
-      </c>
-      <c r="AD57">
-        <v>1</v>
-      </c>
-      <c r="AH57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58">
-        <v>41</v>
-      </c>
-      <c r="C58">
-        <v>1335</v>
-      </c>
-      <c r="D58" t="s">
-        <v>158</v>
-      </c>
-      <c r="E58">
-        <v>1.6</v>
-      </c>
-      <c r="F58" t="s">
-        <v>46</v>
-      </c>
-      <c r="G58" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58">
-        <v>2019</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="V58">
-        <v>1</v>
-      </c>
-      <c r="Y58">
-        <v>1</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>231</v>
-      </c>
-      <c r="AD58">
-        <v>1</v>
-      </c>
-      <c r="AF58">
-        <v>1</v>
-      </c>
-      <c r="AH58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59">
-        <v>41</v>
-      </c>
-      <c r="C59">
-        <v>1335</v>
-      </c>
-      <c r="D59" t="s">
-        <v>158</v>
-      </c>
-      <c r="E59">
-        <v>1.6</v>
-      </c>
-      <c r="F59" t="s">
-        <v>47</v>
-      </c>
-      <c r="G59" t="s">
-        <v>45</v>
-      </c>
-      <c r="H59">
-        <v>2015</v>
-      </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="R59">
-        <v>1</v>
-      </c>
-      <c r="AD59">
-        <v>1</v>
-      </c>
-      <c r="AH59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60">
-        <v>41</v>
-      </c>
-      <c r="C60">
-        <v>1335</v>
-      </c>
-      <c r="D60" t="s">
-        <v>158</v>
-      </c>
-      <c r="E60">
-        <v>1.6</v>
-      </c>
-      <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60">
-        <v>2014</v>
-      </c>
-      <c r="I60" t="s">
-        <v>232</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>1</v>
-      </c>
-      <c r="P60">
-        <v>1</v>
-      </c>
-      <c r="AD60">
-        <v>1</v>
-      </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61">
-        <v>42</v>
-      </c>
-      <c r="C61">
-        <v>1415</v>
-      </c>
-      <c r="D61" t="s">
-        <v>158</v>
-      </c>
-      <c r="E61">
-        <v>1.5</v>
-      </c>
-      <c r="F61" t="s">
-        <v>48</v>
-      </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61">
-        <v>2016</v>
-      </c>
-      <c r="I61" t="s">
-        <v>233</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>1</v>
-      </c>
-      <c r="AD61">
-        <v>1</v>
-      </c>
-      <c r="AH61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62">
-        <v>42</v>
-      </c>
-      <c r="C62">
-        <v>1415</v>
-      </c>
-      <c r="D62" t="s">
-        <v>158</v>
-      </c>
-      <c r="E62">
-        <v>1.5</v>
-      </c>
-      <c r="F62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
       <c r="H62">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -4717,7 +4771,10 @@
       <c r="L62">
         <v>1</v>
       </c>
-      <c r="R62">
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="AB62">
         <v>1</v>
       </c>
       <c r="AD62">
@@ -4727,95 +4784,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B63">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C63">
-        <v>1415</v>
+        <v>836</v>
       </c>
       <c r="D63" t="s">
         <v>158</v>
       </c>
       <c r="E63">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F63" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>2003</v>
-      </c>
-      <c r="I63" t="s">
-        <v>177</v>
+        <v>2011</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>1</v>
-      </c>
-      <c r="Y63">
-        <v>1</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>315</v>
-      </c>
-      <c r="AB63">
-        <v>1</v>
-      </c>
-      <c r="AE63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>1</v>
+      </c>
+      <c r="AD63">
         <v>1</v>
       </c>
       <c r="AH63">
         <v>0</v>
       </c>
-      <c r="AI63">
-        <v>1</v>
-      </c>
-      <c r="AK63" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B64">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C64">
-        <v>1513</v>
+        <v>875</v>
       </c>
       <c r="D64" t="s">
         <v>158</v>
       </c>
       <c r="E64">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="H64">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -4824,24 +4860,12 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
-      <c r="Y64">
-        <v>1</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>317</v>
-      </c>
-      <c r="AB64">
-        <v>1</v>
-      </c>
-      <c r="AF64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="AD64">
         <v>1</v>
       </c>
       <c r="AH64">
@@ -4850,34 +4874,31 @@
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B65">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C65">
-        <v>1513</v>
+        <v>908</v>
       </c>
       <c r="D65" t="s">
         <v>158</v>
       </c>
       <c r="E65">
-        <v>1.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>2006</v>
-      </c>
-      <c r="I65" t="s">
-        <v>189</v>
+        <v>2008</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -4885,10 +4906,7 @@
       <c r="L65">
         <v>1</v>
       </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="U65">
+      <c r="W65">
         <v>1</v>
       </c>
       <c r="AB65">
@@ -4899,35 +4917,32 @@
       </c>
       <c r="AH65">
         <v>0</v>
-      </c>
-      <c r="AK65" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B66">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C66">
-        <v>1513</v>
+        <v>908</v>
       </c>
       <c r="D66" t="s">
         <v>158</v>
       </c>
       <c r="E66">
-        <v>1.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F66" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H66">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -4938,10 +4953,19 @@
       <c r="L66">
         <v>1</v>
       </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="AD66">
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA66">
+        <v>1</v>
+      </c>
+      <c r="AF66">
         <v>1</v>
       </c>
       <c r="AH66">
@@ -4950,51 +4974,54 @@
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B67">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C67">
-        <v>1513</v>
+        <v>1001</v>
       </c>
       <c r="D67" t="s">
         <v>158</v>
       </c>
       <c r="E67">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>2008</v>
-      </c>
-      <c r="I67" t="s">
-        <v>197</v>
+        <v>2007</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67">
         <v>0</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
-      <c r="P67">
-        <v>1</v>
-      </c>
-      <c r="AC67">
-        <v>1</v>
-      </c>
-      <c r="AD67">
+      <c r="U67">
+        <v>1</v>
+      </c>
+      <c r="Y67">
+        <v>1</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF67">
+        <v>1</v>
+      </c>
+      <c r="AG67">
         <v>1</v>
       </c>
       <c r="AH67">
@@ -5003,28 +5030,28 @@
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B68">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C68">
-        <v>1513</v>
+        <v>1001</v>
       </c>
       <c r="D68" t="s">
         <v>158</v>
       </c>
       <c r="E68">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="H68">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -5035,16 +5062,13 @@
       <c r="L68">
         <v>1</v>
       </c>
-      <c r="P68">
-        <v>1</v>
-      </c>
-      <c r="Y68">
-        <v>1</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>319</v>
-      </c>
-      <c r="AE68">
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="AB68">
+        <v>1</v>
+      </c>
+      <c r="AD68">
         <v>1</v>
       </c>
       <c r="AH68">
@@ -5053,31 +5077,31 @@
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c r="B69">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C69">
-        <v>1613</v>
+        <v>1001</v>
       </c>
       <c r="D69" t="s">
         <v>158</v>
       </c>
       <c r="E69">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="F69" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="H69">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="I69" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -5088,117 +5112,99 @@
       <c r="L69">
         <v>0</v>
       </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
       <c r="P69">
         <v>1</v>
       </c>
-      <c r="U69">
-        <v>1</v>
-      </c>
-      <c r="Y69">
-        <v>1</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA69">
-        <v>1</v>
-      </c>
-      <c r="AF69">
+      <c r="AD69">
         <v>1</v>
       </c>
       <c r="AH69">
         <v>0</v>
       </c>
-      <c r="AL69" t="s">
-        <v>235</v>
+      <c r="AK69" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="B70">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C70">
-        <v>1613</v>
+        <v>1001</v>
       </c>
       <c r="D70" t="s">
         <v>158</v>
       </c>
       <c r="E70">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="F70" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="H70">
-        <v>2001</v>
-      </c>
-      <c r="I70" t="s">
-        <v>175</v>
+        <v>2018</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="W70">
         <v>1</v>
       </c>
       <c r="Y70">
         <v>1</v>
       </c>
       <c r="Z70" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="AB70">
         <v>1</v>
       </c>
-      <c r="AC70">
-        <v>1</v>
-      </c>
-      <c r="AD70">
+      <c r="AE70">
         <v>1</v>
       </c>
       <c r="AH70">
         <v>0</v>
-      </c>
-      <c r="AI70">
-        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B71">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C71">
-        <v>1613</v>
+        <v>1063</v>
       </c>
       <c r="D71" t="s">
         <v>158</v>
       </c>
       <c r="E71">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H71">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -5209,7 +5215,10 @@
       <c r="L71">
         <v>1</v>
       </c>
-      <c r="S71">
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="U71">
         <v>1</v>
       </c>
       <c r="AD71">
@@ -5221,28 +5230,28 @@
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>236</v>
+        <v>113</v>
       </c>
       <c r="B72">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C72">
-        <v>1613</v>
+        <v>1135</v>
       </c>
       <c r="D72" t="s">
         <v>158</v>
       </c>
       <c r="E72">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="F72" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H72">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -5253,10 +5262,10 @@
       <c r="L72">
         <v>1</v>
       </c>
-      <c r="T72">
-        <v>1</v>
-      </c>
-      <c r="U72">
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="P72">
         <v>1</v>
       </c>
       <c r="AD72">
@@ -5268,29 +5277,32 @@
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B73">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C73">
-        <v>1730</v>
+        <v>1196</v>
       </c>
       <c r="D73" t="s">
         <v>158</v>
       </c>
       <c r="E73">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="F73" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H73">
         <v>2008</v>
       </c>
+      <c r="I73" t="s">
+        <v>228</v>
+      </c>
       <c r="J73">
         <v>0</v>
       </c>
@@ -5300,66 +5312,72 @@
       <c r="L73">
         <v>1</v>
       </c>
-      <c r="M73">
-        <v>1</v>
-      </c>
-      <c r="AD73">
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="W73">
+        <v>1</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB73">
+        <v>1</v>
+      </c>
+      <c r="AG73">
         <v>1</v>
       </c>
       <c r="AH73">
-        <v>0</v>
+        <v>5.4</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B74">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C74">
-        <v>1730</v>
+        <v>1196</v>
       </c>
       <c r="D74" t="s">
         <v>158</v>
       </c>
       <c r="E74">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="H74">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74">
         <v>0</v>
       </c>
       <c r="L74">
-        <v>1</v>
-      </c>
-      <c r="P74">
-        <v>1</v>
-      </c>
-      <c r="Q74">
-        <v>1</v>
-      </c>
-      <c r="Y74">
-        <v>1</v>
-      </c>
-      <c r="Z74" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="AB74">
-        <v>1</v>
-      </c>
-      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="AD74">
         <v>1</v>
       </c>
       <c r="AH74">
@@ -5368,48 +5386,45 @@
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B75">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C75">
-        <v>1730</v>
+        <v>1267</v>
       </c>
       <c r="D75" t="s">
         <v>158</v>
       </c>
       <c r="E75">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="F75" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H75">
-        <v>2007</v>
-      </c>
-      <c r="I75" t="s">
-        <v>194</v>
+        <v>2008</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75">
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB75">
         <v>1</v>
       </c>
       <c r="AD75">
@@ -5417,49 +5432,43 @@
       </c>
       <c r="AH75">
         <v>0</v>
-      </c>
-      <c r="AK75" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="B76">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C76">
-        <v>1730</v>
+        <v>1267</v>
       </c>
       <c r="D76" t="s">
         <v>158</v>
       </c>
       <c r="E76">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H76">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="P76">
-        <v>1</v>
-      </c>
-      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="N76">
         <v>1</v>
       </c>
       <c r="AD76">
@@ -5471,31 +5480,28 @@
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B77">
+        <v>40</v>
+      </c>
+      <c r="C77">
+        <v>1267</v>
+      </c>
+      <c r="D77" t="s">
+        <v>158</v>
+      </c>
+      <c r="E77">
+        <v>1.7</v>
+      </c>
+      <c r="F77" t="s">
         <v>44</v>
       </c>
-      <c r="C77">
-        <v>1730</v>
-      </c>
-      <c r="D77" t="s">
-        <v>158</v>
-      </c>
-      <c r="E77">
-        <v>1.2</v>
-      </c>
-      <c r="F77" t="s">
-        <v>56</v>
-      </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H77">
-        <v>2013</v>
-      </c>
-      <c r="I77" t="s">
-        <v>237</v>
+        <v>2008</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -5506,16 +5512,16 @@
       <c r="L77">
         <v>1</v>
       </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="S77">
-        <v>1</v>
-      </c>
-      <c r="AB77">
-        <v>1</v>
-      </c>
-      <c r="AD77">
+      <c r="V77">
+        <v>1</v>
+      </c>
+      <c r="Y77">
+        <v>1</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE77">
         <v>1</v>
       </c>
       <c r="AH77">
@@ -5524,42 +5530,48 @@
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B78">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C78">
-        <v>1730</v>
+        <v>1335</v>
       </c>
       <c r="D78" t="s">
         <v>158</v>
       </c>
       <c r="E78">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H78">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="AD78">
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <v>1</v>
+      </c>
+      <c r="Y78">
+        <v>1</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE78">
         <v>1</v>
       </c>
       <c r="AH78">
@@ -5568,39 +5580,39 @@
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B79">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C79">
-        <v>1730</v>
+        <v>1335</v>
       </c>
       <c r="D79" t="s">
         <v>158</v>
       </c>
       <c r="E79">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="F79" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="H79">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="U79">
         <v>1</v>
       </c>
       <c r="AD79">
@@ -5612,31 +5624,28 @@
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B80">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C80">
-        <v>1730</v>
+        <v>1335</v>
       </c>
       <c r="D80" t="s">
         <v>158</v>
       </c>
       <c r="E80">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="F80" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G80" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="H80">
-        <v>2013</v>
-      </c>
-      <c r="I80" t="s">
-        <v>233</v>
+        <v>2019</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -5647,13 +5656,19 @@
       <c r="L80">
         <v>1</v>
       </c>
-      <c r="S80">
-        <v>1</v>
+      <c r="V80">
+        <v>1</v>
+      </c>
+      <c r="Y80">
+        <v>1</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>231</v>
       </c>
       <c r="AD80">
         <v>1</v>
       </c>
-      <c r="AG80">
+      <c r="AF80">
         <v>1</v>
       </c>
       <c r="AH80">
@@ -5662,39 +5677,45 @@
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B81">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C81">
-        <v>1730</v>
+        <v>1335</v>
       </c>
       <c r="D81" t="s">
         <v>158</v>
       </c>
       <c r="E81">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="F81" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H81">
-        <v>2019</v>
+        <v>2014</v>
+      </c>
+      <c r="I81" t="s">
+        <v>232</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>0</v>
       </c>
       <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="W81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
         <v>1</v>
       </c>
       <c r="AD81">
@@ -5706,25 +5727,25 @@
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B82">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C82">
-        <v>1851</v>
+        <v>1513</v>
       </c>
       <c r="D82" t="s">
         <v>158</v>
       </c>
       <c r="E82">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F82" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H82">
         <v>2007</v>
@@ -5736,12 +5757,24 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="W82">
-        <v>1</v>
-      </c>
-      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Y82">
+        <v>1</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB82">
+        <v>1</v>
+      </c>
+      <c r="AF82">
         <v>1</v>
       </c>
       <c r="AH82">
@@ -5750,28 +5783,28 @@
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B83">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C83">
-        <v>1851</v>
+        <v>1513</v>
       </c>
       <c r="D83" t="s">
         <v>158</v>
       </c>
       <c r="E83">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G83" t="s">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -5782,7 +5815,7 @@
       <c r="L83">
         <v>1</v>
       </c>
-      <c r="U83">
+      <c r="M83">
         <v>1</v>
       </c>
       <c r="AD83">
@@ -5794,45 +5827,48 @@
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B84">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C84">
-        <v>1851</v>
+        <v>1513</v>
       </c>
       <c r="D84" t="s">
         <v>158</v>
       </c>
       <c r="E84">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F84" t="s">
         <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="H84">
         <v>2010</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>0</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P84">
         <v>1</v>
       </c>
-      <c r="AC84">
-        <v>1</v>
-      </c>
-      <c r="AD84">
+      <c r="Y84">
+        <v>1</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>319</v>
+      </c>
+      <c r="AE84">
         <v>1</v>
       </c>
       <c r="AH84">
@@ -5841,51 +5877,39 @@
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B85">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C85">
-        <v>1851</v>
+        <v>1613</v>
       </c>
       <c r="D85" t="s">
         <v>158</v>
       </c>
       <c r="E85">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="F85" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G85" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H85">
-        <v>2013</v>
-      </c>
-      <c r="I85" t="s">
-        <v>202</v>
+        <v>2015</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>0</v>
       </c>
       <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>1</v>
-      </c>
-      <c r="Y85">
-        <v>1</v>
-      </c>
-      <c r="Z85" t="s">
-        <v>323</v>
-      </c>
-      <c r="AC85">
+        <v>1</v>
+      </c>
+      <c r="S85">
         <v>1</v>
       </c>
       <c r="AD85">
@@ -5897,51 +5921,42 @@
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="B86">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C86">
-        <v>1851</v>
+        <v>1613</v>
       </c>
       <c r="D86" t="s">
         <v>158</v>
       </c>
       <c r="E86">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="F86" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G86" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H86">
-        <v>2013</v>
-      </c>
-      <c r="I86" t="s">
-        <v>202</v>
+        <v>2017</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86">
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="Y86">
-        <v>1</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>323</v>
-      </c>
-      <c r="AC86">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86">
         <v>1</v>
       </c>
       <c r="AD86">
@@ -5953,54 +5968,42 @@
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B87">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C87">
-        <v>1851</v>
+        <v>1730</v>
       </c>
       <c r="D87" t="s">
         <v>158</v>
       </c>
       <c r="E87">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H87">
-        <v>2012</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>190</v>
+        <v>2008</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87">
         <v>0</v>
       </c>
       <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="P87">
-        <v>1</v>
-      </c>
-      <c r="Y87">
-        <v>1</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC87">
-        <v>1</v>
-      </c>
-      <c r="AF87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="AD87">
         <v>1</v>
       </c>
       <c r="AH87">
@@ -6009,28 +6012,28 @@
     </row>
     <row r="88" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B88">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C88">
-        <v>1851</v>
+        <v>1730</v>
       </c>
       <c r="D88" t="s">
         <v>158</v>
       </c>
       <c r="E88">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="F88" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H88">
-        <v>2020</v>
+        <v>2007</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -6041,13 +6044,22 @@
       <c r="L88">
         <v>1</v>
       </c>
-      <c r="R88">
-        <v>1</v>
-      </c>
-      <c r="S88">
-        <v>1</v>
-      </c>
-      <c r="AD88">
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="Y88">
+        <v>1</v>
+      </c>
+      <c r="Z88" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB88">
+        <v>1</v>
+      </c>
+      <c r="AF88">
         <v>1</v>
       </c>
       <c r="AH88">
@@ -6056,31 +6068,28 @@
     </row>
     <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B89">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C89">
-        <v>1990</v>
+        <v>1730</v>
       </c>
       <c r="D89" t="s">
         <v>158</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F89" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="G89" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="H89">
-        <v>2019</v>
-      </c>
-      <c r="I89" t="s">
-        <v>238</v>
+        <v>2014</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -6091,13 +6100,10 @@
       <c r="L89">
         <v>1</v>
       </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-      <c r="R89">
-        <v>1</v>
-      </c>
-      <c r="S89">
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="X89">
         <v>1</v>
       </c>
       <c r="AD89">
@@ -6109,42 +6115,48 @@
     </row>
     <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B90">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C90">
-        <v>1990</v>
+        <v>1730</v>
       </c>
       <c r="D90" t="s">
         <v>158</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F90" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G90" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H90">
         <v>2013</v>
       </c>
       <c r="I90" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90">
         <v>0</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="AB90">
         <v>1</v>
       </c>
       <c r="AD90">
@@ -6156,48 +6168,48 @@
     </row>
     <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="B91">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C91">
-        <v>1990</v>
+        <v>1730</v>
       </c>
       <c r="D91" t="s">
         <v>158</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F91" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G91" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H91">
-        <v>2018</v>
+        <v>2013</v>
+      </c>
+      <c r="I91" t="s">
+        <v>233</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-      <c r="Y91">
-        <v>1</v>
-      </c>
-      <c r="Z91" t="s">
-        <v>325</v>
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
       </c>
       <c r="AD91">
+        <v>1</v>
+      </c>
+      <c r="AG91">
         <v>1</v>
       </c>
       <c r="AH91">
@@ -6206,39 +6218,39 @@
     </row>
     <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B92">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C92">
-        <v>1990</v>
+        <v>1851</v>
       </c>
       <c r="D92" t="s">
         <v>158</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F92" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G92" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H92">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="W92">
         <v>1</v>
       </c>
       <c r="AD92">
@@ -6246,35 +6258,32 @@
       </c>
       <c r="AH92">
         <v>0</v>
-      </c>
-      <c r="AL92" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B93">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C93">
-        <v>1990</v>
+        <v>1851</v>
       </c>
       <c r="D93" t="s">
         <v>158</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F93" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H93">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -6285,13 +6294,7 @@
       <c r="L93">
         <v>1</v>
       </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-      <c r="Z93" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB93">
+      <c r="U93">
         <v>1</v>
       </c>
       <c r="AD93">
@@ -6299,55 +6302,46 @@
       </c>
       <c r="AH93">
         <v>0</v>
-      </c>
-      <c r="AL93" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B94">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C94">
-        <v>1990</v>
+        <v>1851</v>
       </c>
       <c r="D94" t="s">
         <v>158</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F94" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="G94" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H94">
-        <v>2013</v>
-      </c>
-      <c r="I94" t="s">
-        <v>202</v>
+        <v>2020</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>0</v>
       </c>
       <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>1</v>
-      </c>
-      <c r="W94">
-        <v>1</v>
-      </c>
-      <c r="AC94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94">
         <v>1</v>
       </c>
       <c r="AD94">
@@ -6359,7 +6353,7 @@
     </row>
     <row r="95" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B95">
         <v>46</v>
@@ -6374,13 +6368,16 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G95" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="H95">
-        <v>2020</v>
+        <v>2019</v>
+      </c>
+      <c r="I95" t="s">
+        <v>238</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -6391,7 +6388,13 @@
       <c r="L95">
         <v>1</v>
       </c>
-      <c r="W95">
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="S95">
         <v>1</v>
       </c>
       <c r="AD95">
@@ -6403,7 +6406,7 @@
     </row>
     <row r="96" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B96">
         <v>46</v>
@@ -6418,31 +6421,31 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G96" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="H96">
-        <v>2012</v>
-      </c>
-      <c r="I96" t="s">
-        <v>202</v>
+        <v>2018</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96">
         <v>0</v>
       </c>
       <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="Y96">
+        <v>1</v>
+      </c>
+      <c r="N96">
         <v>1</v>
       </c>
       <c r="Z96" t="s">
-        <v>327</v>
+        <v>326</v>
+      </c>
+      <c r="AB96">
+        <v>1</v>
       </c>
       <c r="AD96">
         <v>1</v>
@@ -6450,10 +6453,13 @@
       <c r="AH96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL96" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B97">
         <v>46</v>
@@ -6468,22 +6474,25 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H97">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
         <v>0</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="W97">
+        <v>1</v>
       </c>
       <c r="AD97">
         <v>1</v>
@@ -6491,11 +6500,13 @@
       <c r="AH97">
         <v>0</v>
       </c>
-      <c r="AL97" t="s">
-        <v>310</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AL97" xr:uid="{21B15131-78E2-BE48-B8A6-56E8696337EB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL97">
+      <sortCondition descending="1" ref="K1:K97"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
